--- a/avega2.xlsx
+++ b/avega2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerome\Desktop\avega-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B9D984-BFA6-4185-B99F-7EF0E2C3E67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70695E7-94A2-4E19-A936-895ACF490010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,11 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -534,7 +533,7 @@
         <v>66.599999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -622,17 +621,11 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" s="2">
         <f>SUBTOTAL(109,D2:D7)</f>
-        <v>2442</v>
+        <v>3718.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E7" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="TREASURY DEPARTMENT"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E7" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>